--- a/py_server/wheatall.xlsx
+++ b/py_server/wheatall.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -64,75 +67,928 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,20 +1178,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J124" workbookViewId="0">
+      <selection activeCell="R130" sqref="R130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,9 +1245,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="3">
-        <v>41640.0</v>
+        <v>41640</v>
       </c>
       <c r="B2" s="4">
         <v>1787.1</v>
@@ -414,7 +1274,7 @@
         <v>2218.21</v>
       </c>
       <c r="J2" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K2" s="4">
         <v>1543.75</v>
@@ -426,18 +1286,18 @@
         <v>2611.32</v>
       </c>
       <c r="N2" s="4">
-        <v>1593.0</v>
+        <v>1593</v>
       </c>
       <c r="O2" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P2" s="4">
         <v>1965.41</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="3">
-        <v>41671.0</v>
+        <v>41671</v>
       </c>
       <c r="B3" s="4">
         <v>1765.71</v>
@@ -446,7 +1306,7 @@
         <v>1637.5</v>
       </c>
       <c r="D3" s="4">
-        <v>1825.0</v>
+        <v>1825</v>
       </c>
       <c r="E3" s="4">
         <v>1565.94</v>
@@ -467,7 +1327,7 @@
         <v>1802.4</v>
       </c>
       <c r="K3" s="4">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="L3" s="4">
         <v>1726.25</v>
@@ -479,15 +1339,15 @@
         <v>1631.71</v>
       </c>
       <c r="O3" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P3" s="4">
         <v>1964.95</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="3">
-        <v>41699.0</v>
+        <v>41699</v>
       </c>
       <c r="B4" s="4">
         <v>1818.75</v>
@@ -505,7 +1365,7 @@
         <v>2626.09</v>
       </c>
       <c r="G4" s="4">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="H4" s="4">
         <v>1538.54</v>
@@ -514,10 +1374,10 @@
         <v>2272.92</v>
       </c>
       <c r="J4" s="4">
-        <v>1803.0</v>
+        <v>1803</v>
       </c>
       <c r="K4" s="4">
-        <v>1503.0</v>
+        <v>1503</v>
       </c>
       <c r="L4" s="4">
         <v>1677.88</v>
@@ -526,24 +1386,24 @@
         <v>2678.57</v>
       </c>
       <c r="N4" s="4">
-        <v>1635.0</v>
+        <v>1635</v>
       </c>
       <c r="O4" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P4" s="4">
         <v>1953.01</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="3">
-        <v>41730.0</v>
+        <v>41730</v>
       </c>
       <c r="B5" s="4">
-        <v>1746.0</v>
+        <v>1746</v>
       </c>
       <c r="C5" s="4">
-        <v>1690.0</v>
+        <v>1690</v>
       </c>
       <c r="D5" s="4">
         <v>1678.13</v>
@@ -564,7 +1424,7 @@
         <v>2156.07</v>
       </c>
       <c r="J5" s="4">
-        <v>1803.0</v>
+        <v>1803</v>
       </c>
       <c r="K5" s="4">
         <v>1505.41</v>
@@ -579,15 +1439,15 @@
         <v>1485.08</v>
       </c>
       <c r="O5" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P5" s="4">
         <v>1917.15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="3">
-        <v>41760.0</v>
+        <v>41760</v>
       </c>
       <c r="B6" s="4">
         <v>1704.41</v>
@@ -614,10 +1474,10 @@
         <v>2128.61</v>
       </c>
       <c r="J6" s="4">
-        <v>1803.0</v>
+        <v>1803</v>
       </c>
       <c r="K6" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="L6" s="4">
         <v>1666.91</v>
@@ -629,18 +1489,18 @@
         <v>1450.16</v>
       </c>
       <c r="O6" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P6" s="4">
         <v>1891.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="3">
-        <v>41791.0</v>
+        <v>41791</v>
       </c>
       <c r="B7" s="4">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="C7" s="4">
         <v>1826.19</v>
@@ -679,15 +1539,15 @@
         <v>1460.72</v>
       </c>
       <c r="O7" s="4">
-        <v>1625.0</v>
+        <v>1625</v>
       </c>
       <c r="P7" s="4">
         <v>1897.06</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:16">
       <c r="A8" s="3">
-        <v>41821.0</v>
+        <v>41821</v>
       </c>
       <c r="B8" s="4">
         <v>1673.26</v>
@@ -714,7 +1574,7 @@
         <v>2008.61</v>
       </c>
       <c r="J8" s="4">
-        <v>1811.0</v>
+        <v>1811</v>
       </c>
       <c r="K8" s="4">
         <v>1511.11</v>
@@ -723,21 +1583,21 @@
         <v>1596.07</v>
       </c>
       <c r="M8" s="4">
-        <v>2650.0</v>
+        <v>2650</v>
       </c>
       <c r="N8" s="4">
         <v>1462.43</v>
       </c>
       <c r="O8" s="4">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="P8" s="4">
         <v>1927.68</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:16">
       <c r="A9" s="3">
-        <v>41852.0</v>
+        <v>41852</v>
       </c>
       <c r="B9" s="4">
         <v>1760.94</v>
@@ -746,7 +1606,7 @@
         <v>1823.68</v>
       </c>
       <c r="D9" s="4">
-        <v>1825.0</v>
+        <v>1825</v>
       </c>
       <c r="E9" s="4">
         <v>1501.47</v>
@@ -758,7 +1618,7 @@
         <v>2633.33</v>
       </c>
       <c r="H9" s="4">
-        <v>1592.0</v>
+        <v>1592</v>
       </c>
       <c r="I9" s="4">
         <v>2056.11</v>
@@ -785,9 +1645,9 @@
         <v>1924.48</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:16">
       <c r="A10" s="3">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="B10" s="4">
         <v>1674.29</v>
@@ -802,7 +1662,7 @@
         <v>1506.27</v>
       </c>
       <c r="F10" s="4">
-        <v>2725.0</v>
+        <v>2725</v>
       </c>
       <c r="G10" s="4">
         <v>2638.78</v>
@@ -811,7 +1671,7 @@
         <v>1588.32</v>
       </c>
       <c r="I10" s="4">
-        <v>2107.0</v>
+        <v>2107</v>
       </c>
       <c r="J10" s="4">
         <v>1814.29</v>
@@ -835,9 +1695,9 @@
         <v>1970.06</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:16">
       <c r="A11" s="3">
-        <v>41913.0</v>
+        <v>41913</v>
       </c>
       <c r="B11" s="4">
         <v>1685.42</v>
@@ -852,7 +1712,7 @@
         <v>1515.89</v>
       </c>
       <c r="F11" s="4">
-        <v>2726.0</v>
+        <v>2726</v>
       </c>
       <c r="G11" s="4">
         <v>2654.17</v>
@@ -861,10 +1721,10 @@
         <v>1640.32</v>
       </c>
       <c r="I11" s="4">
-        <v>2075.0</v>
+        <v>2075</v>
       </c>
       <c r="J11" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K11" s="4">
         <v>1535.9</v>
@@ -885,9 +1745,9 @@
         <v>1993.34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:16">
       <c r="A12" s="3">
-        <v>41944.0</v>
+        <v>41944</v>
       </c>
       <c r="B12" s="4">
         <v>1623.44</v>
@@ -896,7 +1756,7 @@
         <v>1718.33</v>
       </c>
       <c r="D12" s="4">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="E12" s="4">
         <v>1528.06</v>
@@ -914,7 +1774,7 @@
         <v>2079.86</v>
       </c>
       <c r="J12" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K12" s="4">
         <v>1588.37</v>
@@ -935,9 +1795,9 @@
         <v>1989.61</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:16">
       <c r="A13" s="3">
-        <v>41974.0</v>
+        <v>41974</v>
       </c>
       <c r="B13" s="4">
         <v>1537.36</v>
@@ -964,10 +1824,10 @@
         <v>2085.48</v>
       </c>
       <c r="J13" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K13" s="4">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="L13" s="4">
         <v>1639.66</v>
@@ -985,15 +1845,15 @@
         <v>1964.94</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:16">
       <c r="A14" s="3">
-        <v>42005.0</v>
+        <v>42005</v>
       </c>
       <c r="B14" s="4">
         <v>1537.74</v>
       </c>
       <c r="C14" s="4">
-        <v>1705.0</v>
+        <v>1705</v>
       </c>
       <c r="D14" s="4">
         <v>1843.42</v>
@@ -1014,7 +1874,7 @@
         <v>2086.29</v>
       </c>
       <c r="J14" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K14" s="4">
         <v>1590.57</v>
@@ -1023,7 +1883,7 @@
         <v>1647.25</v>
       </c>
       <c r="M14" s="4">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="N14" s="4">
         <v>1590.39</v>
@@ -1035,9 +1895,9 @@
         <v>1979.55</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:16">
       <c r="A15" s="3">
-        <v>42036.0</v>
+        <v>42036</v>
       </c>
       <c r="B15" s="4">
         <v>1562.94</v>
@@ -1064,30 +1924,30 @@
         <v>2096.35</v>
       </c>
       <c r="J15" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K15" s="4">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="L15" s="4">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="M15" s="4">
-        <v>2705.0</v>
+        <v>2705</v>
       </c>
       <c r="N15" s="4">
         <v>1605.73</v>
       </c>
       <c r="O15" s="4">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="P15" s="4">
         <v>2053.46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:16">
       <c r="A16" s="3">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="B16" s="4">
         <v>1600.2</v>
@@ -1114,7 +1974,7 @@
         <v>2068.26</v>
       </c>
       <c r="J16" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K16" s="4">
         <v>1632.08</v>
@@ -1135,9 +1995,9 @@
         <v>2040.19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:16">
       <c r="A17" s="3">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="B17" s="4">
         <v>1539.11</v>
@@ -1164,13 +2024,13 @@
         <v>2019.16</v>
       </c>
       <c r="J17" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="4">
         <v>1627.27</v>
       </c>
       <c r="L17" s="4">
-        <v>1583.0</v>
+        <v>1583</v>
       </c>
       <c r="M17" s="4">
         <v>2687.31</v>
@@ -1179,24 +2039,24 @@
         <v>1519.85</v>
       </c>
       <c r="O17" s="4">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="P17" s="4">
         <v>2033.32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:16">
       <c r="A18" s="3">
-        <v>42125.0</v>
+        <v>42125</v>
       </c>
       <c r="B18" s="4">
         <v>1517.31</v>
       </c>
       <c r="C18" s="4">
-        <v>1663.0</v>
+        <v>1663</v>
       </c>
       <c r="D18" s="4">
-        <v>1815.0</v>
+        <v>1815</v>
       </c>
       <c r="E18" s="4">
         <v>1526.84</v>
@@ -1211,10 +2071,10 @@
         <v>1536.47</v>
       </c>
       <c r="I18" s="4">
-        <v>2170.0</v>
+        <v>2170</v>
       </c>
       <c r="J18" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K18" s="4">
         <v>1620.37</v>
@@ -1229,15 +2089,15 @@
         <v>1489.86</v>
       </c>
       <c r="O18" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="P18" s="4">
         <v>2007.85</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:16">
       <c r="A19" s="3">
-        <v>42156.0</v>
+        <v>42156</v>
       </c>
       <c r="B19" s="4">
         <v>1462.04</v>
@@ -1264,7 +2124,7 @@
         <v>2147.22</v>
       </c>
       <c r="J19" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K19" s="4">
         <v>1615.83</v>
@@ -1273,7 +2133,7 @@
         <v>1504.1</v>
       </c>
       <c r="M19" s="4">
-        <v>2650.0</v>
+        <v>2650</v>
       </c>
       <c r="N19" s="4">
         <v>1489.87</v>
@@ -1285,9 +2145,9 @@
         <v>2023.33</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:16">
       <c r="A20" s="3">
-        <v>42186.0</v>
+        <v>42186</v>
       </c>
       <c r="B20" s="4">
         <v>1434.17</v>
@@ -1314,7 +2174,7 @@
         <v>2075.41</v>
       </c>
       <c r="J20" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K20" s="4">
         <v>1616.94</v>
@@ -1335,9 +2195,9 @@
         <v>2029.37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:16">
       <c r="A21" s="3">
-        <v>42217.0</v>
+        <v>42217</v>
       </c>
       <c r="B21" s="4">
         <v>1435.59</v>
@@ -1361,10 +2221,10 @@
         <v>1609.31</v>
       </c>
       <c r="I21" s="4">
-        <v>2141.0</v>
+        <v>2141</v>
       </c>
       <c r="J21" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K21" s="4">
         <v>1614.17</v>
@@ -1379,15 +2239,15 @@
         <v>1483.93</v>
       </c>
       <c r="O21" s="4">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="P21" s="4">
         <v>2020.45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:16">
       <c r="A22" s="3">
-        <v>42248.0</v>
+        <v>42248</v>
       </c>
       <c r="B22" s="4">
         <v>1480.65</v>
@@ -1414,13 +2274,13 @@
         <v>2169.75</v>
       </c>
       <c r="J22" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="4">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="L22" s="4">
-        <v>1555.0</v>
+        <v>1555</v>
       </c>
       <c r="M22" s="4">
         <v>2683.16</v>
@@ -1435,9 +2295,9 @@
         <v>2032.66</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:16">
       <c r="A23" s="3">
-        <v>42278.0</v>
+        <v>42278</v>
       </c>
       <c r="B23" s="4">
         <v>1471.11</v>
@@ -1446,7 +2306,7 @@
         <v>1688.5</v>
       </c>
       <c r="D23" s="4">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="E23" s="4">
         <v>1525.59</v>
@@ -1464,7 +2324,7 @@
         <v>2247.31</v>
       </c>
       <c r="J23" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K23" s="4">
         <v>1604.44</v>
@@ -1485,9 +2345,9 @@
         <v>2078.07</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:16">
       <c r="A24" s="3">
-        <v>42309.0</v>
+        <v>42309</v>
       </c>
       <c r="B24" s="4">
         <v>1500.86</v>
@@ -1496,7 +2356,7 @@
         <v>1698.79</v>
       </c>
       <c r="D24" s="4">
-        <v>1869.0</v>
+        <v>1869</v>
       </c>
       <c r="E24" s="4">
         <v>1529.46</v>
@@ -1514,7 +2374,7 @@
         <v>2229.86</v>
       </c>
       <c r="J24" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K24" s="4">
         <v>1606.25</v>
@@ -1529,15 +2389,15 @@
         <v>1647.84</v>
       </c>
       <c r="O24" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="P24" s="4">
         <v>2115.72</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:16">
       <c r="A25" s="3">
-        <v>42339.0</v>
+        <v>42339</v>
       </c>
       <c r="B25" s="4">
         <v>1502.34</v>
@@ -1564,7 +2424,7 @@
         <v>2206.79</v>
       </c>
       <c r="J25" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K25" s="4">
         <v>1614.58</v>
@@ -1585,9 +2445,9 @@
         <v>2091.41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:16">
       <c r="A26" s="3">
-        <v>42370.0</v>
+        <v>42370</v>
       </c>
       <c r="B26" s="4">
         <v>1530.16</v>
@@ -1596,10 +2456,10 @@
         <v>1704.5</v>
       </c>
       <c r="D26" s="4">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="E26" s="4">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="F26" s="4">
         <v>2912.5</v>
@@ -1614,7 +2474,7 @@
         <v>2237.41</v>
       </c>
       <c r="J26" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="K26" s="4">
         <v>1619.23</v>
@@ -1635,9 +2495,9 @@
         <v>2080.38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:16">
       <c r="A27" s="3">
-        <v>42401.0</v>
+        <v>42401</v>
       </c>
       <c r="B27" s="4">
         <v>1535.61</v>
@@ -1649,13 +2509,13 @@
         <v>1911.21</v>
       </c>
       <c r="E27" s="4">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="F27" s="4">
-        <v>2905.0</v>
+        <v>2905</v>
       </c>
       <c r="G27" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="H27" s="4">
         <v>1598.65</v>
@@ -1664,7 +2524,7 @@
         <v>2350.24</v>
       </c>
       <c r="J27" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K27" s="4">
         <v>1617.71</v>
@@ -1679,15 +2539,15 @@
         <v>1643.43</v>
       </c>
       <c r="O27" s="4">
-        <v>1832.0</v>
+        <v>1832</v>
       </c>
       <c r="P27" s="4">
         <v>2121.93</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:16">
       <c r="A28" s="3">
-        <v>42430.0</v>
+        <v>42430</v>
       </c>
       <c r="B28" s="4">
         <v>1572.58</v>
@@ -1696,10 +2556,10 @@
         <v>1711.5</v>
       </c>
       <c r="D28" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="E28" s="4">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="F28" s="4">
         <v>2851.19</v>
@@ -1714,7 +2574,7 @@
         <v>2405.52</v>
       </c>
       <c r="J28" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K28" s="4">
         <v>1653.06</v>
@@ -1735,9 +2595,9 @@
         <v>2115.28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:16">
       <c r="A29" s="3">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="B29" s="4">
         <v>1475.45</v>
@@ -1746,10 +2606,10 @@
         <v>1630.33</v>
       </c>
       <c r="D29" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="E29" s="4">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="F29" s="4">
         <v>2863.43</v>
@@ -1764,7 +2624,7 @@
         <v>2419.04</v>
       </c>
       <c r="J29" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K29" s="4">
         <v>1689.09</v>
@@ -1779,15 +2639,15 @@
         <v>1594.84</v>
       </c>
       <c r="O29" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P29" s="4">
         <v>2068.74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:16">
       <c r="A30" s="3">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="B30" s="4">
         <v>1466.42</v>
@@ -1802,7 +2662,7 @@
         <v>1551.13</v>
       </c>
       <c r="F30" s="4">
-        <v>2830.0</v>
+        <v>2830</v>
       </c>
       <c r="G30" s="4">
         <v>2927.46</v>
@@ -1814,7 +2674,7 @@
         <v>2432.48</v>
       </c>
       <c r="J30" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K30" s="4">
         <v>1690.48</v>
@@ -1829,15 +2689,15 @@
         <v>1584.93</v>
       </c>
       <c r="O30" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="P30" s="4">
         <v>2079.64</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:16">
       <c r="A31" s="3">
-        <v>42522.0</v>
+        <v>42522</v>
       </c>
       <c r="B31" s="4">
         <v>1478.36</v>
@@ -1849,7 +2709,7 @@
         <v>1913.33</v>
       </c>
       <c r="E31" s="4">
-        <v>1555.0</v>
+        <v>1555</v>
       </c>
       <c r="F31" s="4">
         <v>2784.38</v>
@@ -1864,7 +2724,7 @@
         <v>2517.41</v>
       </c>
       <c r="J31" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K31" s="4">
         <v>1685.63</v>
@@ -1885,9 +2745,9 @@
         <v>2085.06</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:16">
       <c r="A32" s="3">
-        <v>42552.0</v>
+        <v>42552</v>
       </c>
       <c r="B32" s="4">
         <v>1532.58</v>
@@ -1896,7 +2756,7 @@
         <v>1787.74</v>
       </c>
       <c r="D32" s="4">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="E32" s="4">
         <v>1585.78</v>
@@ -1914,7 +2774,7 @@
         <v>2421.96</v>
       </c>
       <c r="J32" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="K32" s="4">
         <v>1697.26</v>
@@ -1935,18 +2795,18 @@
         <v>2079.35</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:16">
       <c r="A33" s="3">
-        <v>42583.0</v>
+        <v>42583</v>
       </c>
       <c r="B33" s="4">
         <v>1603.47</v>
       </c>
       <c r="C33" s="4">
-        <v>1805.0</v>
+        <v>1805</v>
       </c>
       <c r="D33" s="4">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="E33" s="4">
         <v>1600.4</v>
@@ -1964,7 +2824,7 @@
         <v>2336.21</v>
       </c>
       <c r="J33" s="4">
-        <v>1916.0</v>
+        <v>1916</v>
       </c>
       <c r="K33" s="4">
         <v>1703.03</v>
@@ -1985,9 +2845,9 @@
         <v>2076.71</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:16">
       <c r="A34" s="3">
-        <v>42614.0</v>
+        <v>42614</v>
       </c>
       <c r="B34" s="4">
         <v>1713.97</v>
@@ -2005,7 +2865,7 @@
         <v>2712.5</v>
       </c>
       <c r="G34" s="4">
-        <v>2850.0</v>
+        <v>2850</v>
       </c>
       <c r="H34" s="4">
         <v>1571.71</v>
@@ -2020,7 +2880,7 @@
         <v>1736.36</v>
       </c>
       <c r="L34" s="4">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="M34" s="4">
         <v>2715.94</v>
@@ -2035,9 +2895,9 @@
         <v>2077.99</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:16">
       <c r="A35" s="3">
-        <v>42644.0</v>
+        <v>42644</v>
       </c>
       <c r="B35" s="4">
         <v>1797.66</v>
@@ -2085,15 +2945,15 @@
         <v>2083.29</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:16">
       <c r="A36" s="3">
-        <v>42675.0</v>
+        <v>42675</v>
       </c>
       <c r="B36" s="4">
         <v>1860.77</v>
       </c>
       <c r="C36" s="4">
-        <v>2175.0</v>
+        <v>2175</v>
       </c>
       <c r="D36" s="4">
         <v>1981.25</v>
@@ -2123,7 +2983,7 @@
         <v>1959.49</v>
       </c>
       <c r="M36" s="4">
-        <v>2732.0</v>
+        <v>2732</v>
       </c>
       <c r="N36" s="4">
         <v>1829.93</v>
@@ -2135,9 +2995,9 @@
         <v>2145.82</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:16">
       <c r="A37" s="3">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="B37" s="4">
         <v>2056.34</v>
@@ -2185,9 +3045,9 @@
         <v>2201.75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:16">
       <c r="A38" s="3">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B38" s="4">
         <v>2043.48</v>
@@ -2217,7 +3077,7 @@
         <v>2157.14</v>
       </c>
       <c r="K38" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="L38" s="4">
         <v>1798.13</v>
@@ -2235,9 +3095,9 @@
         <v>2188.12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="1:16">
       <c r="A39" s="3">
-        <v>42767.0</v>
+        <v>42767</v>
       </c>
       <c r="B39" s="4">
         <v>2000.76</v>
@@ -2246,10 +3106,10 @@
         <v>1971.61</v>
       </c>
       <c r="D39" s="4">
-        <v>2075.0</v>
+        <v>2075</v>
       </c>
       <c r="E39" s="4">
-        <v>1925.0</v>
+        <v>1925</v>
       </c>
       <c r="F39" s="4">
         <v>2851.81</v>
@@ -2267,7 +3127,7 @@
         <v>2198.67</v>
       </c>
       <c r="K39" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="L39" s="4">
         <v>1817.73</v>
@@ -2285,9 +3145,9 @@
         <v>2202.18</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:16">
       <c r="A40" s="3">
-        <v>42795.0</v>
+        <v>42795</v>
       </c>
       <c r="B40" s="4">
         <v>1936.49</v>
@@ -2299,7 +3159,7 @@
         <v>2025.81</v>
       </c>
       <c r="E40" s="4">
-        <v>1909.0</v>
+        <v>1909</v>
       </c>
       <c r="F40" s="4">
         <v>2791.3</v>
@@ -2317,13 +3177,13 @@
         <v>2132.5</v>
       </c>
       <c r="K40" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="L40" s="4">
         <v>1807.47</v>
       </c>
       <c r="M40" s="4">
-        <v>2823.0</v>
+        <v>2823</v>
       </c>
       <c r="N40" s="4">
         <v>1757.81</v>
@@ -2335,9 +3195,9 @@
         <v>2175.82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:16">
       <c r="A41" s="3">
-        <v>42826.0</v>
+        <v>42826</v>
       </c>
       <c r="B41" s="4">
         <v>1721.55</v>
@@ -2346,7 +3206,7 @@
         <v>1753.1</v>
       </c>
       <c r="D41" s="4">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="4">
         <v>1870.09</v>
@@ -2385,9 +3245,9 @@
         <v>2128.44</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:16">
       <c r="A42" s="3">
-        <v>42856.0</v>
+        <v>42856</v>
       </c>
       <c r="B42" s="4">
         <v>1527.78</v>
@@ -2396,7 +3256,7 @@
         <v>1739.33</v>
       </c>
       <c r="D42" s="4">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="E42" s="4">
         <v>1794.31</v>
@@ -2435,9 +3295,9 @@
         <v>2105.04</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="1:16">
       <c r="A43" s="3">
-        <v>42887.0</v>
+        <v>42887</v>
       </c>
       <c r="B43" s="4">
         <v>1533.33</v>
@@ -2485,9 +3345,9 @@
         <v>2098.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="1:16">
       <c r="A44" s="3">
-        <v>42917.0</v>
+        <v>42917</v>
       </c>
       <c r="B44" s="4">
         <v>1552.11</v>
@@ -2505,7 +3365,7 @@
         <v>2773.71</v>
       </c>
       <c r="G44" s="4">
-        <v>3250.0</v>
+        <v>3250</v>
       </c>
       <c r="H44" s="4">
         <v>1650.63</v>
@@ -2535,9 +3395,9 @@
         <v>2095.64</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:16">
       <c r="A45" s="3">
-        <v>42948.0</v>
+        <v>42948</v>
       </c>
       <c r="B45" s="4">
         <v>1576.67</v>
@@ -2585,9 +3445,9 @@
         <v>2089.89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:16">
       <c r="A46" s="3">
-        <v>42979.0</v>
+        <v>42979</v>
       </c>
       <c r="B46" s="4">
         <v>1565.37</v>
@@ -2635,9 +3495,9 @@
         <v>2090.15</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="1:16">
       <c r="A47" s="3">
-        <v>43009.0</v>
+        <v>43009</v>
       </c>
       <c r="B47" s="4">
         <v>1579.12</v>
@@ -2685,24 +3545,24 @@
         <v>2112.39</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:16">
       <c r="A48" s="3">
-        <v>43040.0</v>
+        <v>43040</v>
       </c>
       <c r="B48" s="4">
         <v>1575.68</v>
       </c>
       <c r="C48" s="4">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="D48" s="4">
         <v>1928.33</v>
       </c>
       <c r="E48" s="4">
-        <v>1798.0</v>
+        <v>1798</v>
       </c>
       <c r="F48" s="4">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="G48" s="4">
         <v>3159.2</v>
@@ -2735,9 +3595,9 @@
         <v>2120.55</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="1:16">
       <c r="A49" s="3">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="B49" s="4">
         <v>1572.27</v>
@@ -2746,10 +3606,10 @@
         <v>1800.48</v>
       </c>
       <c r="D49" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="4">
-        <v>1810.0</v>
+        <v>1810</v>
       </c>
       <c r="F49" s="4">
         <v>2754.67</v>
@@ -2785,18 +3645,18 @@
         <v>2119.52</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:16">
       <c r="A50" s="3">
-        <v>43101.0</v>
+        <v>43101</v>
       </c>
       <c r="B50" s="4">
-        <v>1582.0</v>
+        <v>1582</v>
       </c>
       <c r="C50" s="4">
         <v>1808.17</v>
       </c>
       <c r="D50" s="4">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="E50" s="4">
         <v>1806.85</v>
@@ -2820,7 +3680,7 @@
         <v>1847.44</v>
       </c>
       <c r="L50" s="4">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="M50" s="4">
         <v>2715.66</v>
@@ -2835,9 +3695,9 @@
         <v>2111.58</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:16">
       <c r="A51" s="3">
-        <v>43132.0</v>
+        <v>43132</v>
       </c>
       <c r="B51" s="4">
         <v>1584.6</v>
@@ -2846,7 +3706,7 @@
         <v>1793.93</v>
       </c>
       <c r="D51" s="4">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="E51" s="4">
         <v>1773.33</v>
@@ -2864,7 +3724,7 @@
         <v>2287.58</v>
       </c>
       <c r="J51" s="4">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="K51" s="4">
         <v>1770.83</v>
@@ -2885,18 +3745,18 @@
         <v>2130.32</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:16">
       <c r="A52" s="3">
-        <v>43160.0</v>
+        <v>43160</v>
       </c>
       <c r="B52" s="4">
         <v>1566.14</v>
       </c>
       <c r="C52" s="4">
-        <v>1784.0</v>
+        <v>1784</v>
       </c>
       <c r="D52" s="4">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="E52" s="4">
         <v>1756.38</v>
@@ -2933,9 +3793,9 @@
         <v>2134.43</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:16">
       <c r="A53" s="3">
-        <v>43191.0</v>
+        <v>43191</v>
       </c>
       <c r="B53" s="4">
         <v>1554.75</v>
@@ -2944,7 +3804,7 @@
         <v>1775.17</v>
       </c>
       <c r="D53" s="4">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="E53" s="4">
         <v>1729.25</v>
@@ -2981,9 +3841,9 @@
         <v>2123.61</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:16">
       <c r="A54" s="3">
-        <v>43221.0</v>
+        <v>43221</v>
       </c>
       <c r="B54" s="4">
         <v>1520.28</v>
@@ -3029,9 +3889,9 @@
         <v>2133.05</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:16">
       <c r="A55" s="3">
-        <v>43252.0</v>
+        <v>43252</v>
       </c>
       <c r="B55" s="4">
         <v>1579.89</v>
@@ -3077,9 +3937,9 @@
         <v>2143.55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:16">
       <c r="A56" s="3">
-        <v>43282.0</v>
+        <v>43282</v>
       </c>
       <c r="B56" s="4">
         <v>1652.43</v>
@@ -3097,7 +3957,7 @@
         <v>2778.26</v>
       </c>
       <c r="G56" s="4">
-        <v>3050.0</v>
+        <v>3050</v>
       </c>
       <c r="H56" s="4">
         <v>1706.78</v>
@@ -3116,7 +3976,7 @@
         <v>2709.01</v>
       </c>
       <c r="N56" s="4">
-        <v>1691.0</v>
+        <v>1691</v>
       </c>
       <c r="O56" s="4">
         <v>1561.88</v>
@@ -3125,9 +3985,9 @@
         <v>2144.96</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="1:16">
       <c r="A57" s="3">
-        <v>43313.0</v>
+        <v>43313</v>
       </c>
       <c r="B57" s="4">
         <v>1800.7</v>
@@ -3173,9 +4033,9 @@
         <v>2166.52</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:16">
       <c r="A58" s="3">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="B58" s="4">
         <v>1804.32</v>
@@ -3206,7 +4066,7 @@
         <v>1876.34</v>
       </c>
       <c r="L58" s="4">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="M58" s="4">
         <v>2882.76</v>
@@ -3221,15 +4081,15 @@
         <v>2174.2</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="1:16">
       <c r="A59" s="3">
-        <v>43374.0</v>
+        <v>43374</v>
       </c>
       <c r="B59" s="4">
         <v>1839.82</v>
       </c>
       <c r="C59" s="4">
-        <v>2045.0</v>
+        <v>2045</v>
       </c>
       <c r="D59" s="4">
         <v>1862.5</v>
@@ -3238,7 +4098,7 @@
         <v>1758.75</v>
       </c>
       <c r="F59" s="4">
-        <v>2888.0</v>
+        <v>2888</v>
       </c>
       <c r="G59" s="4">
         <v>3072.94</v>
@@ -3247,7 +4107,7 @@
         <v>1814.69</v>
       </c>
       <c r="I59" s="4">
-        <v>2436.0</v>
+        <v>2436</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="4">
@@ -3269,9 +4129,9 @@
         <v>2204.92</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="1:16">
       <c r="A60" s="3">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="B60" s="4">
         <v>1927.23</v>
@@ -3286,7 +4146,7 @@
         <v>1758.75</v>
       </c>
       <c r="F60" s="4">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="G60" s="4">
         <v>3087.14</v>
@@ -3317,9 +4177,9 @@
         <v>2228.85</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="1:16">
       <c r="A61" s="3">
-        <v>43435.0</v>
+        <v>43435</v>
       </c>
       <c r="B61" s="4">
         <v>1970.22</v>
@@ -3367,15 +4227,15 @@
         <v>2260.14</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:16">
       <c r="A62" s="3">
-        <v>43466.0</v>
+        <v>43466</v>
       </c>
       <c r="B62" s="4">
         <v>1997.04</v>
       </c>
       <c r="C62" s="4">
-        <v>2099.0</v>
+        <v>2099</v>
       </c>
       <c r="D62" s="4">
         <v>1887.5</v>
@@ -3417,9 +4277,9 @@
         <v>2308.52</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="1:16">
       <c r="A63" s="3">
-        <v>43497.0</v>
+        <v>43497</v>
       </c>
       <c r="B63" s="4">
         <v>2024.7</v>
@@ -3434,7 +4294,7 @@
         <v>1746.25</v>
       </c>
       <c r="F63" s="4">
-        <v>2940.0</v>
+        <v>2940</v>
       </c>
       <c r="G63" s="4">
         <v>3271.3</v>
@@ -3467,9 +4327,9 @@
         <v>2357.49</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:16">
       <c r="A64" s="3">
-        <v>43525.0</v>
+        <v>43525</v>
       </c>
       <c r="B64" s="4">
         <v>2053.41</v>
@@ -3517,15 +4377,15 @@
         <v>2362.83</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="1:16">
       <c r="A65" s="3">
-        <v>43556.0</v>
+        <v>43556</v>
       </c>
       <c r="B65" s="4">
         <v>1861.74</v>
       </c>
       <c r="C65" s="4">
-        <v>1938.0</v>
+        <v>1938</v>
       </c>
       <c r="D65" s="4">
         <v>1887.5</v>
@@ -3567,9 +4427,9 @@
         <v>2337.3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:16">
       <c r="A66" s="3">
-        <v>43586.0</v>
+        <v>43586</v>
       </c>
       <c r="B66" s="4">
         <v>1746.69</v>
@@ -3584,7 +4444,7 @@
         <v>1746.25</v>
       </c>
       <c r="F66" s="4">
-        <v>2875.0</v>
+        <v>2875</v>
       </c>
       <c r="G66" s="4">
         <v>3303.05</v>
@@ -3617,9 +4477,9 @@
         <v>2327.14</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:16">
       <c r="A67" s="3">
-        <v>43617.0</v>
+        <v>43617</v>
       </c>
       <c r="B67" s="4">
         <v>1762.78</v>
@@ -3664,12 +4524,12 @@
         <v>1746.75</v>
       </c>
       <c r="P67" s="4">
-        <v>2338.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:16">
       <c r="A68" s="3">
-        <v>43647.0</v>
+        <v>43647</v>
       </c>
       <c r="B68" s="4">
         <v>1784.24</v>
@@ -3717,9 +4577,9 @@
         <v>2363.55</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:16">
       <c r="A69" s="3">
-        <v>43678.0</v>
+        <v>43678</v>
       </c>
       <c r="B69" s="4">
         <v>1846.07</v>
@@ -3767,9 +4627,9 @@
         <v>2392.28</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:16">
       <c r="A70" s="3">
-        <v>43709.0</v>
+        <v>43709</v>
       </c>
       <c r="B70" s="4">
         <v>1864.38</v>
@@ -3787,7 +4647,7 @@
         <v>2947.69</v>
       </c>
       <c r="G70" s="4">
-        <v>3134.0</v>
+        <v>3134</v>
       </c>
       <c r="H70" s="4">
         <v>1957.06</v>
@@ -3817,9 +4677,9 @@
         <v>2401.63</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="1:16">
       <c r="A71" s="3">
-        <v>43739.0</v>
+        <v>43739</v>
       </c>
       <c r="B71" s="4">
         <v>1922.12</v>
@@ -3831,7 +4691,7 @@
         <v>2087.5</v>
       </c>
       <c r="E71" s="4">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="F71" s="4">
         <v>2960.39</v>
@@ -3867,21 +4727,21 @@
         <v>2484.24</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:16">
       <c r="A72" s="3">
-        <v>43770.0</v>
+        <v>43770</v>
       </c>
       <c r="B72" s="4">
         <v>1949.23</v>
       </c>
       <c r="C72" s="4">
-        <v>2258.0</v>
+        <v>2258</v>
       </c>
       <c r="D72" s="4">
         <v>2084.48</v>
       </c>
       <c r="E72" s="4">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="F72" s="4">
         <v>2970.93</v>
@@ -3917,9 +4777,9 @@
         <v>2498.84</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="1:16">
       <c r="A73" s="3">
-        <v>43800.0</v>
+        <v>43800</v>
       </c>
       <c r="B73" s="4">
         <v>1940.38</v>
@@ -3928,7 +4788,7 @@
         <v>2276.29</v>
       </c>
       <c r="D73" s="4">
-        <v>2100.0</v>
+        <v>2100</v>
       </c>
       <c r="E73" s="4">
         <v>1808.4</v>
@@ -3967,9 +4827,9 @@
         <v>2510.04</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="1:16">
       <c r="A74" s="3">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="B74" s="4">
         <v>1982.11</v>
@@ -3984,7 +4844,7 @@
         <v>1875.96</v>
       </c>
       <c r="F74" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="G74" s="4">
         <v>3192.95</v>
@@ -4011,15 +4871,15 @@
         <v>2014.69</v>
       </c>
       <c r="O74" s="4">
-        <v>1882.0</v>
+        <v>1882</v>
       </c>
       <c r="P74" s="4">
         <v>2558.66</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="1:16">
       <c r="A75" s="3">
-        <v>43862.0</v>
+        <v>43862</v>
       </c>
       <c r="B75" s="4">
         <v>2015.5</v>
@@ -4034,7 +4894,7 @@
         <v>1887.5</v>
       </c>
       <c r="F75" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="G75" s="4">
         <v>3260.53</v>
@@ -4067,9 +4927,9 @@
         <v>2578.52</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:16">
       <c r="A76" s="3">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="B76" s="4">
         <v>2031.75</v>
@@ -4084,7 +4944,7 @@
         <v>1889.75</v>
       </c>
       <c r="F76" s="4">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="G76" s="4">
         <v>3212.32</v>
@@ -4117,9 +4977,9 @@
         <v>2570.08</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customHeight="1" spans="1:16">
       <c r="A77" s="3">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="B77" s="4">
         <v>2039.94</v>
@@ -4149,7 +5009,7 @@
         <v>3043.06</v>
       </c>
       <c r="K77" s="4">
-        <v>2105.0</v>
+        <v>2105</v>
       </c>
       <c r="L77" s="4">
         <v>2122.73</v>
@@ -4167,9 +5027,9 @@
         <v>2595.89</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:16">
       <c r="A78" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="B78" s="4">
         <v>1876.19</v>
@@ -4178,7 +5038,7 @@
         <v>2012.9</v>
       </c>
       <c r="D78" s="4">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="E78" s="4">
         <v>2162.93</v>
@@ -4199,7 +5059,7 @@
         <v>3034.85</v>
       </c>
       <c r="K78" s="4">
-        <v>2075.0</v>
+        <v>2075</v>
       </c>
       <c r="L78" s="4">
         <v>2080.77</v>
@@ -4217,9 +5077,9 @@
         <v>2584.54</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customHeight="1" spans="1:16">
       <c r="A79" s="3">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="B79" s="4">
         <v>1891.08</v>
@@ -4228,10 +5088,10 @@
         <v>1967.67</v>
       </c>
       <c r="D79" s="4">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="E79" s="4">
-        <v>2125.0</v>
+        <v>2125</v>
       </c>
       <c r="F79" s="4">
         <v>2983.52</v>
@@ -4267,9 +5127,9 @@
         <v>2538.13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:16">
       <c r="A80" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="B80" s="4">
         <v>1919.94</v>
@@ -4317,9 +5177,9 @@
         <v>2510.9</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customHeight="1" spans="1:16">
       <c r="A81" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="B81" s="4">
         <v>1943.93</v>
@@ -4328,7 +5188,7 @@
         <v>1877.33</v>
       </c>
       <c r="D81" s="4">
-        <v>2225.0</v>
+        <v>2225</v>
       </c>
       <c r="E81" s="4">
         <v>2102.86</v>
@@ -4367,9 +5227,9 @@
         <v>2514.16</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="1:16">
       <c r="A82" s="3">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="B82" s="4">
         <v>1881.54</v>
@@ -4417,9 +5277,9 @@
         <v>2487.93</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="1:16">
       <c r="A83" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="B83" s="4">
         <v>1805.6</v>
@@ -4428,7 +5288,7 @@
         <v>1809.14</v>
       </c>
       <c r="D83" s="4">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="E83" s="4">
         <v>2058.21</v>
@@ -4467,9 +5327,9 @@
         <v>2471.59</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="1:16">
       <c r="A84" s="3">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="B84" s="4">
         <v>1789.43</v>
@@ -4511,15 +5371,15 @@
         <v>1751.51</v>
       </c>
       <c r="O84" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="P84" s="4">
         <v>2488.5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="1:16">
       <c r="A85" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="B85" s="4">
         <v>1732.55</v>
@@ -4567,9 +5427,9 @@
         <v>2455.22</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="1:16">
       <c r="A86" s="3">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="B86" s="4">
         <v>1727.78</v>
@@ -4617,9 +5477,9 @@
         <v>2425.03</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:16">
       <c r="A87" s="3">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="B87" s="4">
         <v>1746.04</v>
@@ -4667,9 +5527,9 @@
         <v>2377.63</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="1:16">
       <c r="A88" s="3">
-        <v>44256.0</v>
+        <v>44256</v>
       </c>
       <c r="B88" s="4">
         <v>1745.81</v>
@@ -4681,7 +5541,7 @@
         <v>2273.33</v>
       </c>
       <c r="E88" s="4">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F88" s="4">
         <v>2834.19</v>
@@ -4696,7 +5556,7 @@
         <v>2513.51</v>
       </c>
       <c r="J88" s="4">
-        <v>2906.0</v>
+        <v>2906</v>
       </c>
       <c r="K88" s="4">
         <v>1923.02</v>
@@ -4717,15 +5577,15 @@
         <v>2363.64</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:16">
       <c r="A89" s="3">
-        <v>44287.0</v>
+        <v>44287</v>
       </c>
       <c r="B89" s="4">
         <v>1727.78</v>
       </c>
       <c r="C89" s="4">
-        <v>1912.0</v>
+        <v>1912</v>
       </c>
       <c r="D89" s="4">
         <v>2301.46</v>
@@ -4767,9 +5627,9 @@
         <v>2299.29</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:16">
       <c r="A90" s="3">
-        <v>44317.0</v>
+        <v>44317</v>
       </c>
       <c r="B90" s="4">
         <v>1744.84</v>
@@ -4817,9 +5677,9 @@
         <v>2243.43</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="1:16">
       <c r="A91" s="3">
-        <v>44348.0</v>
+        <v>44348</v>
       </c>
       <c r="B91" s="4">
         <v>1723.66</v>
@@ -4843,7 +5703,7 @@
         <v>1965.03</v>
       </c>
       <c r="I91" s="4">
-        <v>2856.0</v>
+        <v>2856</v>
       </c>
       <c r="J91" s="4">
         <v>2943.82</v>
@@ -4867,9 +5727,9 @@
         <v>2290.62</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="1:16">
       <c r="A92" s="3">
-        <v>44378.0</v>
+        <v>44378</v>
       </c>
       <c r="B92" s="4">
         <v>1716.21</v>
@@ -4899,7 +5759,7 @@
         <v>2919.47</v>
       </c>
       <c r="K92" s="4">
-        <v>1975.0</v>
+        <v>1975</v>
       </c>
       <c r="L92" s="4">
         <v>2106.1</v>
@@ -4917,15 +5777,15 @@
         <v>2293.82</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:16">
       <c r="A93" s="3">
-        <v>44409.0</v>
+        <v>44409</v>
       </c>
       <c r="B93" s="4">
         <v>1702.63</v>
       </c>
       <c r="C93" s="4">
-        <v>1916.0</v>
+        <v>1916</v>
       </c>
       <c r="D93" s="4">
         <v>2267.02</v>
@@ -4967,18 +5827,18 @@
         <v>2280.01</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:16">
       <c r="A94" s="3">
-        <v>44440.0</v>
+        <v>44440</v>
       </c>
       <c r="B94" s="4">
         <v>1733.19</v>
       </c>
       <c r="C94" s="4">
-        <v>2054.0</v>
+        <v>2054</v>
       </c>
       <c r="D94" s="4">
-        <v>2320.0</v>
+        <v>2320</v>
       </c>
       <c r="E94" s="4">
         <v>1992.41</v>
@@ -5017,9 +5877,9 @@
         <v>2314.02</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:16">
       <c r="A95" s="3">
-        <v>44470.0</v>
+        <v>44470</v>
       </c>
       <c r="B95" s="4">
         <v>1758.58</v>
@@ -5067,9 +5927,9 @@
         <v>2365.74</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="1:16">
       <c r="A96" s="3">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="B96" s="4">
         <v>1799.4</v>
@@ -5099,7 +5959,7 @@
         <v>2989.51</v>
       </c>
       <c r="K96" s="4">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="L96" s="4">
         <v>2170.2</v>
@@ -5117,9 +5977,9 @@
         <v>2414.63</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="1:16">
       <c r="A97" s="3">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="B97" s="4">
         <v>1806.28</v>
@@ -5167,9 +6027,9 @@
         <v>2420.53</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="1:16">
       <c r="A98" s="3">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="B98" s="4">
         <v>1800.42</v>
@@ -5217,9 +6077,9 @@
         <v>2411.1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="1:16">
       <c r="A99" s="3">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="B99" s="4">
         <v>1823.15</v>
@@ -5264,12 +6124,12 @@
         <v>2042.72</v>
       </c>
       <c r="P99" s="4">
-        <v>2444.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:16">
       <c r="A100" s="3">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="B100" s="4">
         <v>1927.8</v>
@@ -5317,9 +6177,9 @@
         <v>2490.12</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:16">
       <c r="A101" s="3">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="B101" s="4">
         <v>1949.08</v>
@@ -5367,9 +6227,9 @@
         <v>2525.87</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:16">
       <c r="A102" s="3">
-        <v>44682.0</v>
+        <v>44682</v>
       </c>
       <c r="B102" s="4">
         <v>1973.81</v>
@@ -5417,9 +6277,9 @@
         <v>2568.41</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="1:16">
       <c r="A103" s="3">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B103" s="4">
         <v>1992.59</v>
@@ -5467,9 +6327,9 @@
         <v>2604.99</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="1:16">
       <c r="A104" s="3">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="B104" s="4">
         <v>2062.23</v>
@@ -5517,15 +6377,15 @@
         <v>2618.14</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="1:16">
       <c r="A105" s="3">
-        <v>44774.0</v>
+        <v>44774</v>
       </c>
       <c r="B105" s="4">
-        <v>2249.0</v>
+        <v>2249</v>
       </c>
       <c r="C105" s="4">
-        <v>2330.0</v>
+        <v>2330</v>
       </c>
       <c r="D105" s="4">
         <v>2837.7</v>
@@ -5567,9 +6427,9 @@
         <v>2691.43</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="1:16">
       <c r="A106" s="3">
-        <v>44805.0</v>
+        <v>44805</v>
       </c>
       <c r="B106" s="4">
         <v>2392.43</v>
@@ -5617,9 +6477,9 @@
         <v>2713.63</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="1:16">
       <c r="A107" s="3">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="B107" s="4">
         <v>2467.02</v>
@@ -5667,9 +6527,9 @@
         <v>2728.59</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="1:16">
       <c r="A108" s="3">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="B108" s="4">
         <v>2527.59</v>
@@ -5717,21 +6577,21 @@
         <v>2802.07</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="1:16">
       <c r="A109" s="3">
-        <v>44896.0</v>
+        <v>44896</v>
       </c>
       <c r="B109" s="4">
         <v>2592.72</v>
       </c>
       <c r="C109" s="4">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="D109" s="4">
         <v>2848.61</v>
       </c>
       <c r="E109" s="4">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="F109" s="4">
         <v>3559.91</v>
@@ -5767,9 +6627,9 @@
         <v>2869.1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="1:16">
       <c r="A110" s="3">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="B110" s="4">
         <v>2682.05</v>
@@ -5817,15 +6677,15 @@
         <v>2944.8</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="1:16">
       <c r="A111" s="3">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="B111" s="4">
         <v>2655.57</v>
       </c>
       <c r="C111" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D111" s="4">
         <v>2866.23</v>
@@ -5867,9 +6727,9 @@
         <v>2965.92</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="1:16">
       <c r="A112" s="3">
-        <v>44986.0</v>
+        <v>44986</v>
       </c>
       <c r="B112" s="4">
         <v>2479.59</v>
@@ -5917,15 +6777,15 @@
         <v>2850.12</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:16">
       <c r="A113" s="3">
-        <v>45017.0</v>
+        <v>45017</v>
       </c>
       <c r="B113" s="4">
         <v>2274.13</v>
       </c>
       <c r="C113" s="4">
-        <v>2550.0</v>
+        <v>2550</v>
       </c>
       <c r="D113" s="4">
         <v>2938.7</v>
@@ -5967,9 +6827,9 @@
         <v>2767.81</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="1:16">
       <c r="A114" s="3">
-        <v>45047.0</v>
+        <v>45047</v>
       </c>
       <c r="B114" s="4">
         <v>2250.1</v>
@@ -6005,7 +6865,7 @@
         <v>2603.71</v>
       </c>
       <c r="M114" s="4">
-        <v>3722.0</v>
+        <v>3722</v>
       </c>
       <c r="N114" s="4">
         <v>2208.68</v>
@@ -6017,9 +6877,9 @@
         <v>2774.27</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:16">
       <c r="A115" s="3">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="B115" s="4">
         <v>2309.79</v>
@@ -6067,9 +6927,9 @@
         <v>2817.46</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="1:16">
       <c r="A116" s="3">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="B116" s="4">
         <v>2343.64</v>
@@ -6117,9 +6977,9 @@
         <v>2840.71</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="1:16">
       <c r="A117" s="3">
-        <v>45139.0</v>
+        <v>45139</v>
       </c>
       <c r="B117" s="4">
         <v>2365.86</v>
@@ -6167,9 +7027,9 @@
         <v>2874.92</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:16">
       <c r="A118" s="3">
-        <v>45170.0</v>
+        <v>45170</v>
       </c>
       <c r="B118" s="4">
         <v>2394.15</v>
@@ -6178,7 +7038,7 @@
         <v>2518.33</v>
       </c>
       <c r="D118" s="4">
-        <v>3035.0</v>
+        <v>3035</v>
       </c>
       <c r="E118" s="4">
         <v>2316.67</v>
@@ -6217,9 +7077,9 @@
         <v>2904.26</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="1:16">
       <c r="A119" s="3">
-        <v>45200.0</v>
+        <v>45200</v>
       </c>
       <c r="B119" s="4">
         <v>2422.1</v>
@@ -6267,15 +7127,15 @@
         <v>2927.93</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="1:16">
       <c r="A120" s="3">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="B120" s="4">
         <v>2491.57</v>
       </c>
       <c r="C120" s="4">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="D120" s="4">
         <v>3096.44</v>
@@ -6317,9 +7177,9 @@
         <v>2979.32</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="1:16">
       <c r="A121" s="3">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="B121" s="4">
         <v>2516.35</v>
@@ -6343,7 +7203,7 @@
         <v>2573.4</v>
       </c>
       <c r="I121" s="4">
-        <v>3407.0</v>
+        <v>3407</v>
       </c>
       <c r="J121" s="4">
         <v>3319.76</v>
@@ -6367,9 +7227,9 @@
         <v>2989.27</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="1:16">
       <c r="A122" s="3">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="B122" s="4">
         <v>2506.46</v>
@@ -6417,9 +7277,9 @@
         <v>2995.69</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="1:16">
       <c r="A123" s="3">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="B123" s="4">
         <v>2496.49</v>
@@ -6467,15 +7327,15 @@
         <v>3005.71</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="1:16">
       <c r="A124" s="3">
-        <v>45352.0</v>
+        <v>45352</v>
       </c>
       <c r="B124" s="4">
         <v>2482.04</v>
       </c>
       <c r="C124" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D124" s="4">
         <v>3223.33</v>
@@ -6517,15 +7377,15 @@
         <v>2987.42</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="1:16">
       <c r="A125" s="3">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="B125" s="4">
         <v>2442.98</v>
       </c>
       <c r="C125" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D125" s="4">
         <v>3170.79</v>
@@ -6567,15 +7427,15 @@
         <v>2963.55</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:16">
       <c r="A126" s="3">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="B126" s="4">
         <v>2405.49</v>
       </c>
       <c r="C126" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D126" s="4">
         <v>3193.92</v>
@@ -6617,15 +7477,15 @@
         <v>2958.12</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="1:16">
       <c r="A127" s="3">
-        <v>45444.0</v>
+        <v>45444</v>
       </c>
       <c r="B127" s="4">
         <v>2433.68</v>
       </c>
       <c r="C127" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D127" s="4">
         <v>3477.51</v>
@@ -6667,15 +7527,15 @@
         <v>2981.06</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="1:16">
       <c r="A128" s="3">
-        <v>45474.0</v>
+        <v>45474</v>
       </c>
       <c r="B128" s="4">
         <v>2461.35</v>
       </c>
       <c r="C128" s="4">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="D128" s="4">
         <v>3531.73</v>
@@ -6717,52 +7577,25 @@
         <v>3005.97</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="4">
-        <v>2192.63</v>
-      </c>
-      <c r="C129" s="4">
-        <v>2049.58</v>
-      </c>
-      <c r="D129" s="4">
-        <v>2345.27</v>
-      </c>
-      <c r="E129" s="4">
-        <v>1900.36</v>
-      </c>
-      <c r="F129" s="4">
-        <v>3444.13</v>
-      </c>
-      <c r="G129" s="4">
-        <v>3342.52</v>
-      </c>
-      <c r="H129" s="4">
-        <v>2233.69</v>
-      </c>
-      <c r="I129" s="4">
-        <v>2937.92</v>
-      </c>
-      <c r="J129" s="4">
-        <v>3030.17</v>
-      </c>
-      <c r="K129" s="4">
-        <v>2052.16</v>
-      </c>
-      <c r="L129" s="4">
-        <v>2377.64</v>
-      </c>
-      <c r="M129" s="4">
-        <v>3383.88</v>
-      </c>
-      <c r="N129" s="4">
-        <v>2208.25</v>
-      </c>
-      <c r="O129" s="4">
-        <v>2004.35</v>
-      </c>
+    <row r="129" customHeight="1" spans="2:16">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
       <c r="P129" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>